--- a/500all/speech_level/speeches_CHRG-114hhrg94388.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order, and good afternoon. I apologize to our witnesses and guests for the delay. We did have a series of votes, and we can never anticipate that. So I want to apologize for that rather significant delay of \\1/2\\ hour.    The Sergei Magnitsky Rule of Law Accountability Act of 2012 directed the President to publish and update a list of each person the President has reason to conclude was responsible for the detention, abuse, or death of Sergei Magnitsky, a leader and accounting advisor with Firestone Duncan, an international law and accounting firm with offices in Moscow and London.    William Browder, chief executive officer of Hermitage Capital Management, Limited, one of today's witnesses and a driving force behind the 2012 Magnitsky Act and the legislation that has now been introduced and is pending before our committee, has provided a detailed account of the violent expropriation of the assets of Hermitage, the largest foreign investment brokerage in Russia, by rampant Russian Government corruption, bribery, fraud, forgery, cronyism, and outright theft.    Magnitsky had documented Hermitage's loss and other financial dealings, including draining some $230 million from the Russian Treasury by tax fraud. He was arrested in November 2008 reportedly for tax evasion, and denied medical care, family visits, or due legal process, while in custody. He was beaten and tortured and died in prison in November 2009. He was 37 years old and married with two young children.    The Sergei Magnitsky Rule of Law Accountability Act of 2012 targeted those who participated in related liability concealment efforts, financially benefitted from Sergei Magnitsky's detention, abuse, or death, or were involved in the criminal conspiracy uncovered by Magnitsky or responsible for extrajudicial killings, torture, or other human rights violations committed against individuals seeking to expose illegal activity carried out by Russian officials or against persons seeking to promote human rights and freedoms.    The act directed the Secretaries of State and Treasury to annually report to Congress on actions taken to implement the act, including rejecting visa applications, revoking existing visas, and blocking property transactions for persons the President put on the Magnitsky list.    The United States is, as we all know, the land of opportunity, but it should not be for those who misused and murdered Sergei Magnitsky. Without the original act, the government officials and business people who perpetrated crimes against a young man, against a major international firm, and against even the Russian people themselves by stealing from them could have taken their ill-gotten gains and come to this country to purchase property and live the good life in the United States.    Today's hearing will examine the need for H.R. 624, the Global Magnitsky Human Rights Accountability Act, which extends these human rights and anti-corruption tools to other countries. The House passed the 2012 Magnitsky Act by a vote of 365 to 43, and there is a strong majority-minority co-sponsorship for H.R. 624.    Since the original Magnitsky Act became law in December 2012, human rights victims and advocates from around the world and anti-corruption champions have asked for a Global Magnitsky Act, first asking that such acts be enacted for specific countries.    H.R. 624 ensures, with minimal cost or burden to the U.S., that our Government gives some justice to victims and stands in solidarity with them in a tangible way, shines a spotlight on perpetrators making them pariahs, and pressures governments to prosecute perpetrators who are their citizens.    The Global Magnitsky Act is intended to destruct the impunity and comfort that far too many international human rights violators currently enjoy, and to keep their tainted money out of our financial systems. It also fights the human rights abuses and corruption that generate national security terrorism and economic threats to the United States.    A few years ago Teodorin Obiang Mangue, son of the President of Equatorial Guinea, visited the United States regularly using funds siphoned from American companies operating in his country. He lived a glamorous life in Malibu, California, dating celebrities and collecting expensive cars. When France issued a warrant for his arrest after he refused to appear at a money laundering hearing, his father provided him with diplomatic immunity to escape prosecution.    In 2012, June, after years of trying to track Teodorin's wealth, the U.S. Department of Justice finally filed a lawsuit in California court alleging massive money laundering and listing among the scandalous kettle of assets his $35 million Malibu mansion with a four-hole golf course, tennis court, and two swimming pools. That is just one of the acquisitions he made in the United States.    The financial manipulations of this young man led in part to the closing of Riggs Bank in Washington, one of the capital's premier financial institutions. Such people should not be able to steal from foreign firms and their own people and then use those funds to live lavishly in our country.    Similarly, those who torture and otherwise commit the worst human rights violations against others should not be welcomed here either. And I have written legislation over the years to enforce that principle. The Ethiopia Freedom, Democracy, and Human Rights Advancement Act of 2006 would have prevented officials who ordered the callous shooting of peaceful demonstrators in Ethiopia from entering this country.    The Foreign Relations Act for Fiscal Years 2000 and 2001 became law--I was the prime sponsor of it--and it required the U.S. Government to impose visa bans on any foreign national the Secretary of State has determined is directly involved in establishing or enforcing population control policies that force a woman to undergo abortions against her will or force a man or woman to undergo sterilizations against their will.    And then there is the Belarus Democracy Act of 2004 and its reauthorizations, which also became law, that imposed visa bans and asset freezes on government officials from the Government of Belarus because of their violations of basic human rights and freedoms, and that has now malaffected, as it should, one of the last dictators in Europe, Alexander Lukashenka, and his cronies.    If we stand by quietly when governments refuse to prosecute human rights abusers and financial fraudsters, then we welcome those guilty of such crimes into the U.S. and into our financial systems, we are indeed enabling their crimes. The 2012 Magnitsky Act was a major step in freeing ourselves from aiding and abetting international perpetrators.    H.R. 624 makes the next step in taking a stand against their crimes. If we are serious about rejecting their deeds, perhaps their governments and other governments will become more serious as well.    I would like to yield to Ms. Bass, the ranking member of the subcommittee.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Chairman Smith, for your leadership and for calling today's hearing on the Global Magnitsky Human Rights Accountability Act, to give us an opportunity to discuss the need to examine the act toward a global vehicle to hold individuals accountable for human rights abuses.    I would also like to thank our distinguished witnesses for today, including representatives from a range of organizations concerned with global human rights issues. I look forward to hearing each of your perspectives, including your assessment of what more can be done to successfully expose and address gross violations of human rights around the world.    Dealing with issues of corruption and impunity are challenges to national governance worldwide. These challenges become particularly pronounced when governments seek to silence citizens who promote human rights or seek to expose illegal activities by those governments, be they journalists, intellectuals, or other kinds of activists and whistleblowers. To be clear, we know that this silencing takes multiple forms, including illegal detention, torture, and extrajudicial killings.    Again, I want to thank today's witnesses for their time and insight and look forward to working with my colleagues in Congress to further develop legislation to address global human rights abuses and increase the accountability of governmental officials who violate citizens' human rights.    I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman. Thank you for holding this important hearing. As a co-sponsor of the Global Magnitsky Human Rights Accountability Act, I feel it is important and necessary for us to hold human rights abusers accountable, and I appreciate the opportunity to be part of this hearing. Those who abuse human rights must face serious consequences, and this hearing, along with the Accountability Act, will strengthen the President's ability to sanction human rights abusers.    I look forward to hearing from our panel of witnesses, and, again, thank you, Mr. Chairman and the ranking member, for holding this important hearing, and I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman, and thank you, Ranking Member Bass, for holding today's hearing, and thank you especially, Chairman Smith, for your long leadership on human rights. All people deserve to be respected and to live their lives free from violence, persecution, discrimination, and oppression.    Protecting fundamental human rights is an important responsibility. It should and must remain a cornerstone of American foreign policy, which is why the United States has a responsibility to respond to egregious human rights abuses by imposing sanctions on those who commit or contribute to human rights violations.    Last Congress I introduced the Global Respect Act, which would direct the President to impose visa sanctions on foreign persons who commit egregious human rights violations on the basis of sexual orientation or gender identity. I think it is important to recognize the particular plight faced by LGBT individuals around the world, especially as many continue to be victims of violence and murder at shocking rates.    This bill ensures that we take that approach, a comprehensive approach, to protecting human rights and to be certain that those who are responsible for human rights violations are held accountable. It is critically important to continue to protect the basic human rights of all individuals, all vulnerable and marginalized populations.    The United States must be vigilant in protecting the human rights of racial, ethnic, linguistic minorities, women, and children, religious minorities, and political dissidents, among others. That is why I am very proud to co-sponsor the Global Magnitsky Human Rights Accountability Act.    I look forward to the testimony from our very distinguished panel, and thank you, again, Mr. Chairman, for calling this hearing. And with that, I yield back.</t>
   </si>
   <si>
@@ -103,34 +91,22 @@
     <t xml:space="preserve">    Mr. Smith. Mr. Browder.</t>
   </si>
   <si>
-    <t>Browder</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Browder. Chairman Smith, Ranking Member Bass, and members of the subcommittee, thank you very much for giving me the opportunity to address you today.    The name of the law which is being considered is Sergei Magnitsky. Sergei Magnitsky was my lawyer in Russia, and Sergei Magnitsky worked for me trying to uncover government corruption in Russia, which led to an astounding discovery that government officials, working together with organized criminals, had stolen $230 million of taxes that we paid to the Russian Government, not from us but from the Russian Government.    And Sergei, as a patriot, testified against the officials involved, thinking that it should not be allowed that government officials should steal from their own country. And he thought that the President of Russia, Vladimir Putin, was someone who was acting in the national interest, and if this $230 million theft was exposed that the good guys would get the bad guys and that would be the end of the story.    Instead, after Sergei testified against the officials, the same officials he testified against arrested him, put him in pretrial detention, tortured him in the most horrific way for 358 days, and killed him on November 16, 2009.    I got the news on the 17th of November, in the morning of his murder. And it was by far the most horrific, traumatic, life-changing news that I could ever get, and I made a vow to his memory, to his family, and to myself, that I was going to make sure that we saw justice for Sergei Magnitsky, and that his death would not be a meaningless death.    And for the last 5\\1/2\\ years I have been on a quest to get that justice and to bring some meaning to his death, so that something good, possibly good, could come out of it. And originally I thought we could get justice inside of Russia. The details of this death were not a matter of speculation. He wrote everything down in the form of 450 complaints he filed in his 358 days in detention, documenting exactly who did what to him, when, how, where, and why. And those details should have been enough to prosecute more than a dozen people.    Instead, they prosecuted nobody. They exonerated everybody involved, and on the 1-year anniversary of Sergei's death they gave special state honors to some of the people who were most complicit. There are only two people who have ever been prosecuted in this case. Three years after Sergei's death Sergei Magnitsky himself was prosecuted posthumously in the first-ever trial against a dead man in the history of Russia, and I was prosecuted as his co-defendant and sentenced to 9 years in absentia.    It became obvious that if we couldn't get justice inside of Russia, we needed to get justice outside of Russia. So I started traveling the world looking for justice, and I discovered that there actually aren't any mechanisms for international justice. They just don't exist. The best you can do is go to the State Department and have them possibly issue a statement, or go to the British Foreign Office and have them say that they are disappointed with somebody's death.    And so I started to look around to see what kind of justice could we get if we could invent our own mechanism for justice, and this crime was perpetrated for the theft of $230 million, and the people who did this crime wanted to not keep their money in Russia but keep it in the West, and they like to travel to the West, and send their kids to school in the West, and have their family members go shopping in the West.    And so I came to this room, this exact room, in 2010, and I told the story I have just told you in front of the Lantos Commission on Human Rights in front of Congressman McGovern. And I said, ``Can you do something about this?'' And he came up with the idea of what has now become known as the Sergei Magnitsky Act, which was to freeze assets and ban visas of the people who killed Sergei Magnitsky.    The act was originally just for Sergei Magnitsky, and then a number of people started coming forward, including Boris Nemstov, an opposition leader from Russia, who said, ``You have hit the Achilles heel of the Putin regime by doing this. They like to commit their crimes in Russia, but they like to enjoy their money in the West. Could you please expand this so it includes the other gross human rights abusers in Russia?''    And Congressman McGovern, along with Senators and various other Members of Congress, heard these calls and added 65 words to the law to include all other gross human rights abusers. The law passed; this is one of the few things in Washington where there is no partisanship. This is bipartisan. Torturers and murderers have no support from anybody, and, as a result, it passed 92 to 4 in the Senate, and 89 percent in the House of Representatives, and it was signed into law.    And the interesting thing that happened after it was signed into law was that, as I started speaking about it at conferences around the world, I started getting approached by people who have been victimized in other countries. I was approached by people from Tibet, from Venezuela, from Bahrain, from China, and I started hearing their stories, and they all asked me, ``How can we do the same thing for our country?'' And the answer was, there is no reason why an Uzbek human rights abuser should have a better deal than a Russian human rights abuser.    And I am very grateful for Congressmen Smith and McGovern who decided to initiate and introduce this law in January of this year, because this is really the new technology for dealing with human rights abuse.    It is not new to impose sanctions, but what is new is that we are living in a globalized world now where, you know, perhaps the Khmer Rouge didn't go on vacation to San Tropez, but members of the Kazakhstani regime, who are perpetrating human rights abuses, are seen there all the time.    And in a globalized world we have some leverage to do something here, and this is something we can do. And so I would be very glad to have a wider support than just your support here, and that we make this into law like the Russian version of the Magnitsky Act, and to leave Sergei Magnitsky with a legacy that his death wasn't a meaningless death.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Browder, thank you so very much.    Rebiya Kadeer.    [The following statement and answers were delivered through an interpreter.]</t>
   </si>
   <si>
-    <t>Kadeer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kadeer. Good afternoon, Chairman Smith, and Ranking Member Bass, and members of the subcommittee. It is an honor to be here today, and I am grateful to you for inviting me to the hearing on the Global Magnitsky Human Rights Accountability Act.    And I cannot speak English, so, therefore, I prepared a written statement, so my assistant Omer Kanat will read my statement to you.    I am very honored to be here today, and I wish to express my profound appreciation to Representative Smith for inviting me to testify. Representative Smith has been a champion in Congress for those who suffer from human rights abuses and has spoken out on behalf of the Uyghur people.    The Sergei Magnitsky Rule of Law Accountability Act of 2012 was a commitment to defend universal human rights standards, to hold egregious human rights violators in Russia responsible for their acts. The U.S. Congress should be praised for passing this historic legislation on human rights, and President Obama should be commended for signing it into law.    The Magnitsky Act highlighted the profound injustice surrounding the case of Sergei Magnitsky and demonstrated that proactive measures targeting human right abuses can have immediate results. Therefore, the Global Magnitsky Human Rights Accountability Act is an important milestone in the protection of human rights worldwide. Applying the Magnitsky Act universally to include all officials, not just Russian ones, who order or commit gross human rights violations is critical and urgently needed.    Across the globe, people are in dire need of the kind of protection of the Global Magnitsky Act will afford. State officials who engage in egregious human rights abuses often rob their citizens of public money and invest it overseas. It is right to deny these officials access to the United States' financial apparatus and the territory of the United States.    In China, the Uyghur people face massive, systematic, and human rights violations on a daily basis. This pattern of human rights abuses has long been in place. The annual reports of human rights practices in China issued by the U.S. State Department have detailed a broad range of rights concerns regarding Uyghurs, including enforced disappearances; jailing of political dissidents, journalists, and Webmasters; repression of independent religious leaders; forced abortions; destruction of cultural heritage; restrictions of movement; tight controls on freedom of expression, particularly on the Internet; marginalization of the Uyghur language in education and society; pressures exerted on foreign governments to deport Uyghur refugees; and targeted surveillance.    Since Xi Jinping became China's President 2 years ago, human rights violations of the Uyghur people have intensified. Excessive force and extrajudicial killings are a feature of a Chinese state's security approach to the region. The disproportionate use of force during house-to-house searches, at security checkpoints, and during peaceful demonstrations have led to state-initiated violence. Credible allegations of state violence in Hanerik, Elishku, Alaqagha, and Siriqbuya merit further investigation.    Furthermore, the Chinese state's persecution of Uyghur academic Ilham Tohti and his students demonstrates the highly vindictive and paranoid nature of the Chinese regime. Using legitimate and peaceful means to initiate a meaningful dialogue with the state on the deplorable conditions facing the Uyghurs, Ilham Tohti was targeted by the Chinese authorities and sentenced to life in prison in a legal process that was highly politicized.    The expansion of the Magnitsky Act to apply universally to all officials who have directed, ordered, or committed gross human rights violations will show strong American leadership to protect the fundamental human rights of all people around the world. If this act becomes law, it will have a profound ripple effect, because mere listing some of the most well-known human rights violators in authoritarian states like China will send a powerful message to low-ranking officials that their criminal actions will not be immune to international scrutiny, condemnation, and consequences.    International scrutiny is imperative to achieve tangible results in human rights. My case is example of what can be done when human rights violators are publicly named. Without international pressure and concern, I could have been tortured, or even killed, in prison. However, not everyone is as lucky as me. Many Uyghurs face cruel and unusual torture and punishment in the Chinese prison system every day.    Enacting a Global Magnitsky Act will protect the fundamental human rights of the oppressed and save the lives of many peoples, including the Uyghurs. They will be grateful to the U.S. for taking an important step in the global protection of human rights around the world.    There may be concerns that such an act will directly impact bilateral relations with authoritarian states. It must be noted that this act doesn't specifically target a particular country or a head of state. It only targets individuals who are the most egregious human rights violators, or are the more corrupt officials, and who commit such violations under his or her official capacity.    Therefore, the negative impact of this act on bilateral relations would be minimal, while its positive impact on improving global human rights and creating a model for other countries to follow would be huge.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so very much, Ms. Kadeer.    Mr. Weinstein.</t>
   </si>
   <si>
-    <t>Weinstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weinstein. Thank you, Chairman Smith, Ranking Member Bass, Representative Cicilline. I deeply appreciate the invitation to appear before you today to discuss Chairman Smith's bill, H.R. 624, the Global Magnitsky Human Rights Accountability Act, as well as the broader issue of corruption as an affront to human rights and a threat to U.S. national security. I want to applaud your moral courage and your leadership on these issues, which has been critical in the past and is needed as we go forward.    Throughout the world, corruption undermines the rule of law, it erodes confidence in democratic accountability, it threatens representative government, and thereby poses a fundamental challenge to human rights. When corruption is highly entrenched, economies are plundered and repression is often brought to bear against citizens and civic organizations demanding accountable governance.    Corrupt regimes, as we now see on a daily basis, also exert a very destablizing influence on international affairs. One only need to rapidly review the headlines to gain a sense of how politically motivated violence is fueled by profiteering and bribery, especially where weak governance is in place. Look around at the turmoil following the Arab Spring, the war in Ukraine, and you'll see different facets of the danger that corruption poses to peace, prosperity, and freedom worldwide.    Whether it be in Afghanistan, Syria, Iraq, or Libya, areas of significant destabilizing conflicts, vast levels of graft and cronyism have been crippling both national and local governments. Corruption serves as a rallying cry for extremist groups and is an obstacle to encountering them effectively on the battlefield.    Across Europe, and we have heard a bit about Asia, authoritarian kleptocracy is a particularly dangerous manifestation of this phenomena. Beyond internal oppression, these regimes are increasingly willing to export bribery and extortion, to support client states, coopt foreign political factions, and undermine the advance of democracy abroad. And these same kleptocracies, as we have heard, are willing to employ appalling violence to preserve the parasitic arrangements that keep them in power.    We saw what happened in the streets of Kiev in 2014 when citizens took to the streets to oust Viktor Yanukovych, the corrupt patron of Moscow, and they stood their courageously despite a wall of batons and a hail of bullets that killed more than 100 of their countrymen.    Their popular will for closer ties to Europe, for democratization, and freedom prevailed, but Russia responded with invasion, annexation, and occupation. To the Kremlin, a free and democratic Ukraine is an unacceptable counterpoint to the corruption and authoritarianism of the Putin regime that we have heard so much about already.    As a result, a sovereign state at the heart of Europe faces military aggression proscribed by the Budapest Memorandum on Security Assurances, the Helsinki Final Act, and Article Two of the U.N. Charter.    Meanwhile, fringe political parties throughout Europe, both East and West--and not simply fringe political parties--are being buoyed and bankrolled by the same corrupt governments or private entities that belong to government officials in these countries fueling the war in Ukraine.    Veiled nuclear threats and provocative military maneuvers seek to rattle the nerves of our European partners while aggressive media and social media campaigns spreads disinformation, distract attention from the truth, and sow discord. These operations divide our allies, discredit the NATO security compact, and call into question the values of the post-Cold War political order.    Fortunately, the inherent superiority of both the Western political and financial order grants the U.S. leverage to confront this complex national security threat. As has been noted, corrupt officials often take advantage of open societies to shelter their assets and gain safe haven from political pressures at home.    With apartments and villas of grand standing and large bank accounts abroad, kleptocrats and their cronies and enablers can enjoy the benefits of freedom and rule of law that they or their associates deny to their fellow citizens. This is especially the case when public officials, in collusion with private entities, are allowed to abuse their authority with impunity.    The legislation that you have proposed, the Global Magnitsky Human Rights Accountability Act, offers the United States an opportunity to close this escape valve and to refuse to serve the interests of kleptocrats and our strategic adversaries. This bill is complementary to U.S. policy and can be narrowly and appropriately tailored.    The Obama administration's 2014 fact sheet on the U.S. Global Anticorruption Agenda identifies corruption as a growing national security threat to our country and our allies around the world. Furthermore, it notes that the United States continues to take action to prevent the U.S. legal and financial systems from being exploited by those who engage in or who launder the proceeds of corruption.    Government entities, including the FBI, the Department of Justice, the Department of State, and the Department of Treasury are active in countering kleptocracy. This bill would complement their work by providing a mechanism for congressional action to sanction specific individuals most responsible for human rights abuses and threats to U.S. national security.    The Global Magnitsky Act is neither a blank check to Congress nor an overreaching mandate imposed on the executive branch. Congress' authority respecting the application of the Magnitsky Act is sensibly balanced by the diplomatic and national security prerogatives or priorities set by the executive branch.    The bill provides the President with broad authority to determine the scope of sanctions and grant waivers, as appropriate, in the interest of national security. Conversely, the bill's reporting requirement encourages the President to seriously consider congressional recommendations and make scrupulous determinations based upon its findings.    Finally, the bill reflects beliefs broadly shared by the American public and our partners in the international community. The U.S. is the indispensable nation, the world leader primarily responsible for promoting the rule of law, good governance, human rights, and a peaceful international order.    We are a leader in confronting criminal regimes in the name of freedom. Global Magnitsky will build on this legacy, setting an example for others to follow in refusing to lend legitimacy to human rights abusers by sheltering their stolen assets and welcoming them to our shores.    The bill wisely sanctions only individuals. It leaves important multilateral trade and cultural exchanges upon which citizens of all countries benefit untouched. The bill also expresses solidarity with those suffering under corrupt regimes, taking actions against human rights abusers on behalf of those who cannot do so themselves.    Accordingly, the bill represents an opportunity to take a stand against destabilizing public corruption in a conspicuous, visible, and effective manner, thereby lending support to the fight for democracy, rule of law, and freedom throughout the world.    Last year, Hudson Institute founded the Kleptocracy Initiative, a program aimed at addressing the threats posed by corrupt authoritarian regimes to Western democracy and U.S. national security. We founded this initiative in part because of the threat posed to Western democracies and Western alliances by the growing financial leverage of kleptocrats and their allies in the economies of the West.    Given the threat that they pose to democracy in their own countries and to the defense of freedom abroad, the individuals responsible for unconscionable acts of corruption and human rights violations should not be granted sanctuary on our soil or economic refuge in our financial sector. As such, I applaud the Global Magnitsky Act as an effective and appropriate countermeasure against these criminal regimes.    By refusing to allow abusers of human rights the privilege of access to our financial institutions and entry upon our soil, the Global Magnitsky Act represents a momentous opportunity to demonstrate continued American leadership on this most critical effort.    Thank you again for inviting me to testify. It is an honor to speak before this august subcommittee on an issue of such consequence to our vital national interests.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Dr. Weinstein, thank you very much for your testimony and insights.    Dr. Calingaert.</t>
-  </si>
-  <si>
-    <t>Calingaert</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Calingaert. Chairman Smith, Ranking Member Bass, Congressman Cicilline, thanks so much for the invitation to speak today. I applaud your leadership on human rights issues and especially for introducing the Global Magnitsky Human Rights Accountability Act.    Earlier today, Freedom House released its annual global survey of press freedom, and the findings were really pretty grim. We see the lowest rating in 10 years. In a separate report where we look at political and civil rights generally, we have seen 9 straight years of decline.    What we are seeing, in essence, is a resurgence of authoritarian governments. And these governments are using tactics that are more and more brazen, and they are really showing open disdain for basic democratic standards. To pick just one example, in Egypt, over 1,400 political activists have been sentenced to death in mass trials that did not even have basic elements of due process. The world is becoming more hostile to our values and also our interests, because undemocratic forces, particularly authoritarian governments, are driving political change.    The U.S. needs to take the initiative on human rights away from authoritarian governments, and the best way to do this is to target their weak spots; namely, impunity and corruption.    Why should we hold individual officials to account for human rights abuses? Well, first, to put increased pressure on governments to respect human rights--and in most cases this means to follow their own constitutions and live up to their own commitments to international human rights agreements.    Second, to deter future human rights violations. If a penalty hangs over a perpetrator's head, he or she may think twice about committing the crime.    Third, to force authoritarian rulers to make a difficult choice. Either they can protect the most repugnant officials in their regimes and attract further scrutiny to the worst aspects of their rule, or they can cut loose the very officials who do their dirty work and keep them in power.    Why should we focus on corruption? Because it is the Achilles' heel of authoritarian regimes. For ordinary citizens, human rights are sometimes a bit abstract, but they fully understand the harm caused by corruption. They detest the injustice of rulers enriching themselves at the public's expense, particularly when citizens are struggling to make ends meet.    The popular uprising in Ukraine against then-President Yanukovych was in large part a reaction to the corruption in the government. The Sergei Magnitsky Rule of Law Accountability Act of 2012 provided a sound policy instrument to address human rights abuses in Russia. It introduced a measure of accountability for the perpetrators of those abuses.    The law carefully targeted visa bans and asset freezes on individuals responsible for gross human rights violations, and it in no way harmed ordinary Russians. The Global Magnitsky bill would direct the President to extend the same consequences to perpetrators of human rights abuses and corrupt officials anywhere in the world.    The global scope of this bill is a key strength. It means no country is singled out, and it would apply to countries like China and Saudi Arabia that tend to escape criticism for their human rights abuses because of competing economic or security interests.    There are a great many others around the world like Sergei Magnitsky who have been targeted for abuse because they dare to call for justice or freedom. To cite just a few recent examples, Gao Yu was sentenced to 7 years in prison in China, really for doing her job, for being a forthright and principled journalist.    Raif Badawi was sentenced in Saudi Arabia to 10 years in prison and 1,000 lashes because his Web site hosted criticism of senior religious figures. The Zone Nine bloggers in Ethiopia face a possible death sentence on terrorism charges because they documented human rights abuses and reported on political prisoners.    In Azerbaijan, Rasul Jafarov was sentenced to 6\\1/2\\ years for exposing the government's poor human rights record at a time when that government is trying to burnish its international credentials and preparing for hosting the European games in June. And also, in Azerbaijan, Khadija Ismayilova was imprisoned because she dared to investigate and publish news articles about corruption by the family of the President Aliyev. The list could go on and on.    The perpetrators of these and similar abuses are rarely denied the benefit of entry to the United States or access to our financial system. The Global Magnitsky bill would change that. If passed, this bill may elicit some angry responses from some authoritarian rulers or complicate U.S. relations with some governments. But what can they say? They can't openly admit that they harbor individuals responsible for human rights abuses and corruption.    When the United States defends human rights, it usually faces resistance--that is expected--but we press ahead because we know that what we are doing is right, and we refuse to let authoritarian rulers dictate the terms of our relationship with them.    We can't accept that the price of security or economic cooperation is to look the other way on human rights violations. We need to be confident enough both to continue the cooperation with other governments but still to hold human rights abusers and corrupt officials to account.    Thank you.</t>
@@ -571,11 +547,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -595,13 +569,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -623,11 +595,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -647,13 +617,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -675,11 +643,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -699,13 +665,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -727,11 +691,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -751,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -777,13 +737,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -805,11 +763,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -829,13 +785,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -857,11 +811,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -881,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -909,11 +859,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -933,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -961,11 +907,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -985,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1013,11 +955,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1037,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1065,11 +1003,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1089,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1117,11 +1051,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1141,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1169,11 +1099,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1193,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1221,11 +1147,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1245,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1273,11 +1195,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1297,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1325,11 +1243,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94388.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order, and good afternoon. I apologize to our witnesses and guests for the delay. We did have a series of votes, and we can never anticipate that. So I want to apologize for that rather significant delay of \\1/2\\ hour.    The Sergei Magnitsky Rule of Law Accountability Act of 2012 directed the President to publish and update a list of each person the President has reason to conclude was responsible for the detention, abuse, or death of Sergei Magnitsky, a leader and accounting advisor with Firestone Duncan, an international law and accounting firm with offices in Moscow and London.    William Browder, chief executive officer of Hermitage Capital Management, Limited, one of today's witnesses and a driving force behind the 2012 Magnitsky Act and the legislation that has now been introduced and is pending before our committee, has provided a detailed account of the violent expropriation of the assets of Hermitage, the largest foreign investment brokerage in Russia, by rampant Russian Government corruption, bribery, fraud, forgery, cronyism, and outright theft.    Magnitsky had documented Hermitage's loss and other financial dealings, including draining some $230 million from the Russian Treasury by tax fraud. He was arrested in November 2008 reportedly for tax evasion, and denied medical care, family visits, or due legal process, while in custody. He was beaten and tortured and died in prison in November 2009. He was 37 years old and married with two young children.    The Sergei Magnitsky Rule of Law Accountability Act of 2012 targeted those who participated in related liability concealment efforts, financially benefitted from Sergei Magnitsky's detention, abuse, or death, or were involved in the criminal conspiracy uncovered by Magnitsky or responsible for extrajudicial killings, torture, or other human rights violations committed against individuals seeking to expose illegal activity carried out by Russian officials or against persons seeking to promote human rights and freedoms.    The act directed the Secretaries of State and Treasury to annually report to Congress on actions taken to implement the act, including rejecting visa applications, revoking existing visas, and blocking property transactions for persons the President put on the Magnitsky list.    The United States is, as we all know, the land of opportunity, but it should not be for those who misused and murdered Sergei Magnitsky. Without the original act, the government officials and business people who perpetrated crimes against a young man, against a major international firm, and against even the Russian people themselves by stealing from them could have taken their ill-gotten gains and come to this country to purchase property and live the good life in the United States.    Today's hearing will examine the need for H.R. 624, the Global Magnitsky Human Rights Accountability Act, which extends these human rights and anti-corruption tools to other countries. The House passed the 2012 Magnitsky Act by a vote of 365 to 43, and there is a strong majority-minority co-sponsorship for H.R. 624.    Since the original Magnitsky Act became law in December 2012, human rights victims and advocates from around the world and anti-corruption champions have asked for a Global Magnitsky Act, first asking that such acts be enacted for specific countries.    H.R. 624 ensures, with minimal cost or burden to the U.S., that our Government gives some justice to victims and stands in solidarity with them in a tangible way, shines a spotlight on perpetrators making them pariahs, and pressures governments to prosecute perpetrators who are their citizens.    The Global Magnitsky Act is intended to destruct the impunity and comfort that far too many international human rights violators currently enjoy, and to keep their tainted money out of our financial systems. It also fights the human rights abuses and corruption that generate national security terrorism and economic threats to the United States.    A few years ago Teodorin Obiang Mangue, son of the President of Equatorial Guinea, visited the United States regularly using funds siphoned from American companies operating in his country. He lived a glamorous life in Malibu, California, dating celebrities and collecting expensive cars. When France issued a warrant for his arrest after he refused to appear at a money laundering hearing, his father provided him with diplomatic immunity to escape prosecution.    In 2012, June, after years of trying to track Teodorin's wealth, the U.S. Department of Justice finally filed a lawsuit in California court alleging massive money laundering and listing among the scandalous kettle of assets his $35 million Malibu mansion with a four-hole golf course, tennis court, and two swimming pools. That is just one of the acquisitions he made in the United States.    The financial manipulations of this young man led in part to the closing of Riggs Bank in Washington, one of the capital's premier financial institutions. Such people should not be able to steal from foreign firms and their own people and then use those funds to live lavishly in our country.    Similarly, those who torture and otherwise commit the worst human rights violations against others should not be welcomed here either. And I have written legislation over the years to enforce that principle. The Ethiopia Freedom, Democracy, and Human Rights Advancement Act of 2006 would have prevented officials who ordered the callous shooting of peaceful demonstrators in Ethiopia from entering this country.    The Foreign Relations Act for Fiscal Years 2000 and 2001 became law--I was the prime sponsor of it--and it required the U.S. Government to impose visa bans on any foreign national the Secretary of State has determined is directly involved in establishing or enforcing population control policies that force a woman to undergo abortions against her will or force a man or woman to undergo sterilizations against their will.    And then there is the Belarus Democracy Act of 2004 and its reauthorizations, which also became law, that imposed visa bans and asset freezes on government officials from the Government of Belarus because of their violations of basic human rights and freedoms, and that has now malaffected, as it should, one of the last dictators in Europe, Alexander Lukashenka, and his cronies.    If we stand by quietly when governments refuse to prosecute human rights abusers and financial fraudsters, then we welcome those guilty of such crimes into the U.S. and into our financial systems, we are indeed enabling their crimes. The 2012 Magnitsky Act was a major step in freeing ourselves from aiding and abetting international perpetrators.    H.R. 624 makes the next step in taking a stand against their crimes. If we are serious about rejecting their deeds, perhaps their governments and other governments will become more serious as well.    I would like to yield to Ms. Bass, the ranking member of the subcommittee.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Chairman Smith, for your leadership and for calling today's hearing on the Global Magnitsky Human Rights Accountability Act, to give us an opportunity to discuss the need to examine the act toward a global vehicle to hold individuals accountable for human rights abuses.    I would also like to thank our distinguished witnesses for today, including representatives from a range of organizations concerned with global human rights issues. I look forward to hearing each of your perspectives, including your assessment of what more can be done to successfully expose and address gross violations of human rights around the world.    Dealing with issues of corruption and impunity are challenges to national governance worldwide. These challenges become particularly pronounced when governments seek to silence citizens who promote human rights or seek to expose illegal activities by those governments, be they journalists, intellectuals, or other kinds of activists and whistleblowers. To be clear, we know that this silencing takes multiple forms, including illegal detention, torture, and extrajudicial killings.    Again, I want to thank today's witnesses for their time and insight and look forward to working with my colleagues in Congress to further develop legislation to address global human rights abuses and increase the accountability of governmental officials who violate citizens' human rights.    I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman. Thank you for holding this important hearing. As a co-sponsor of the Global Magnitsky Human Rights Accountability Act, I feel it is important and necessary for us to hold human rights abusers accountable, and I appreciate the opportunity to be part of this hearing. Those who abuse human rights must face serious consequences, and this hearing, along with the Accountability Act, will strengthen the President's ability to sanction human rights abusers.    I look forward to hearing from our panel of witnesses, and, again, thank you, Mr. Chairman and the ranking member, for holding this important hearing, and I yield back.</t>
   </si>
   <si>
@@ -76,6 +94,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman, and thank you, Ranking Member Bass, for holding today's hearing, and thank you especially, Chairman Smith, for your long leadership on human rights. All people deserve to be respected and to live their lives free from violence, persecution, discrimination, and oppression.    Protecting fundamental human rights is an important responsibility. It should and must remain a cornerstone of American foreign policy, which is why the United States has a responsibility to respond to egregious human rights abuses by imposing sanctions on those who commit or contribute to human rights violations.    Last Congress I introduced the Global Respect Act, which would direct the President to impose visa sanctions on foreign persons who commit egregious human rights violations on the basis of sexual orientation or gender identity. I think it is important to recognize the particular plight faced by LGBT individuals around the world, especially as many continue to be victims of violence and murder at shocking rates.    This bill ensures that we take that approach, a comprehensive approach, to protecting human rights and to be certain that those who are responsible for human rights violations are held accountable. It is critically important to continue to protect the basic human rights of all individuals, all vulnerable and marginalized populations.    The United States must be vigilant in protecting the human rights of racial, ethnic, linguistic minorities, women, and children, religious minorities, and political dissidents, among others. That is why I am very proud to co-sponsor the Global Magnitsky Human Rights Accountability Act.    I look forward to the testimony from our very distinguished panel, and thank you, again, Mr. Chairman, for calling this hearing. And with that, I yield back.</t>
   </si>
   <si>
@@ -91,22 +115,34 @@
     <t xml:space="preserve">    Mr. Smith. Mr. Browder.</t>
   </si>
   <si>
+    <t>Browder</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Browder. Chairman Smith, Ranking Member Bass, and members of the subcommittee, thank you very much for giving me the opportunity to address you today.    The name of the law which is being considered is Sergei Magnitsky. Sergei Magnitsky was my lawyer in Russia, and Sergei Magnitsky worked for me trying to uncover government corruption in Russia, which led to an astounding discovery that government officials, working together with organized criminals, had stolen $230 million of taxes that we paid to the Russian Government, not from us but from the Russian Government.    And Sergei, as a patriot, testified against the officials involved, thinking that it should not be allowed that government officials should steal from their own country. And he thought that the President of Russia, Vladimir Putin, was someone who was acting in the national interest, and if this $230 million theft was exposed that the good guys would get the bad guys and that would be the end of the story.    Instead, after Sergei testified against the officials, the same officials he testified against arrested him, put him in pretrial detention, tortured him in the most horrific way for 358 days, and killed him on November 16, 2009.    I got the news on the 17th of November, in the morning of his murder. And it was by far the most horrific, traumatic, life-changing news that I could ever get, and I made a vow to his memory, to his family, and to myself, that I was going to make sure that we saw justice for Sergei Magnitsky, and that his death would not be a meaningless death.    And for the last 5\\1/2\\ years I have been on a quest to get that justice and to bring some meaning to his death, so that something good, possibly good, could come out of it. And originally I thought we could get justice inside of Russia. The details of this death were not a matter of speculation. He wrote everything down in the form of 450 complaints he filed in his 358 days in detention, documenting exactly who did what to him, when, how, where, and why. And those details should have been enough to prosecute more than a dozen people.    Instead, they prosecuted nobody. They exonerated everybody involved, and on the 1-year anniversary of Sergei's death they gave special state honors to some of the people who were most complicit. There are only two people who have ever been prosecuted in this case. Three years after Sergei's death Sergei Magnitsky himself was prosecuted posthumously in the first-ever trial against a dead man in the history of Russia, and I was prosecuted as his co-defendant and sentenced to 9 years in absentia.    It became obvious that if we couldn't get justice inside of Russia, we needed to get justice outside of Russia. So I started traveling the world looking for justice, and I discovered that there actually aren't any mechanisms for international justice. They just don't exist. The best you can do is go to the State Department and have them possibly issue a statement, or go to the British Foreign Office and have them say that they are disappointed with somebody's death.    And so I started to look around to see what kind of justice could we get if we could invent our own mechanism for justice, and this crime was perpetrated for the theft of $230 million, and the people who did this crime wanted to not keep their money in Russia but keep it in the West, and they like to travel to the West, and send their kids to school in the West, and have their family members go shopping in the West.    And so I came to this room, this exact room, in 2010, and I told the story I have just told you in front of the Lantos Commission on Human Rights in front of Congressman McGovern. And I said, ``Can you do something about this?'' And he came up with the idea of what has now become known as the Sergei Magnitsky Act, which was to freeze assets and ban visas of the people who killed Sergei Magnitsky.    The act was originally just for Sergei Magnitsky, and then a number of people started coming forward, including Boris Nemstov, an opposition leader from Russia, who said, ``You have hit the Achilles heel of the Putin regime by doing this. They like to commit their crimes in Russia, but they like to enjoy their money in the West. Could you please expand this so it includes the other gross human rights abusers in Russia?''    And Congressman McGovern, along with Senators and various other Members of Congress, heard these calls and added 65 words to the law to include all other gross human rights abusers. The law passed; this is one of the few things in Washington where there is no partisanship. This is bipartisan. Torturers and murderers have no support from anybody, and, as a result, it passed 92 to 4 in the Senate, and 89 percent in the House of Representatives, and it was signed into law.    And the interesting thing that happened after it was signed into law was that, as I started speaking about it at conferences around the world, I started getting approached by people who have been victimized in other countries. I was approached by people from Tibet, from Venezuela, from Bahrain, from China, and I started hearing their stories, and they all asked me, ``How can we do the same thing for our country?'' And the answer was, there is no reason why an Uzbek human rights abuser should have a better deal than a Russian human rights abuser.    And I am very grateful for Congressmen Smith and McGovern who decided to initiate and introduce this law in January of this year, because this is really the new technology for dealing with human rights abuse.    It is not new to impose sanctions, but what is new is that we are living in a globalized world now where, you know, perhaps the Khmer Rouge didn't go on vacation to San Tropez, but members of the Kazakhstani regime, who are perpetrating human rights abuses, are seen there all the time.    And in a globalized world we have some leverage to do something here, and this is something we can do. And so I would be very glad to have a wider support than just your support here, and that we make this into law like the Russian version of the Magnitsky Act, and to leave Sergei Magnitsky with a legacy that his death wasn't a meaningless death.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Browder, thank you so very much.    Rebiya Kadeer.    [The following statement and answers were delivered through an interpreter.]</t>
   </si>
   <si>
+    <t>Kadeer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kadeer. Good afternoon, Chairman Smith, and Ranking Member Bass, and members of the subcommittee. It is an honor to be here today, and I am grateful to you for inviting me to the hearing on the Global Magnitsky Human Rights Accountability Act.    And I cannot speak English, so, therefore, I prepared a written statement, so my assistant Omer Kanat will read my statement to you.    I am very honored to be here today, and I wish to express my profound appreciation to Representative Smith for inviting me to testify. Representative Smith has been a champion in Congress for those who suffer from human rights abuses and has spoken out on behalf of the Uyghur people.    The Sergei Magnitsky Rule of Law Accountability Act of 2012 was a commitment to defend universal human rights standards, to hold egregious human rights violators in Russia responsible for their acts. The U.S. Congress should be praised for passing this historic legislation on human rights, and President Obama should be commended for signing it into law.    The Magnitsky Act highlighted the profound injustice surrounding the case of Sergei Magnitsky and demonstrated that proactive measures targeting human right abuses can have immediate results. Therefore, the Global Magnitsky Human Rights Accountability Act is an important milestone in the protection of human rights worldwide. Applying the Magnitsky Act universally to include all officials, not just Russian ones, who order or commit gross human rights violations is critical and urgently needed.    Across the globe, people are in dire need of the kind of protection of the Global Magnitsky Act will afford. State officials who engage in egregious human rights abuses often rob their citizens of public money and invest it overseas. It is right to deny these officials access to the United States' financial apparatus and the territory of the United States.    In China, the Uyghur people face massive, systematic, and human rights violations on a daily basis. This pattern of human rights abuses has long been in place. The annual reports of human rights practices in China issued by the U.S. State Department have detailed a broad range of rights concerns regarding Uyghurs, including enforced disappearances; jailing of political dissidents, journalists, and Webmasters; repression of independent religious leaders; forced abortions; destruction of cultural heritage; restrictions of movement; tight controls on freedom of expression, particularly on the Internet; marginalization of the Uyghur language in education and society; pressures exerted on foreign governments to deport Uyghur refugees; and targeted surveillance.    Since Xi Jinping became China's President 2 years ago, human rights violations of the Uyghur people have intensified. Excessive force and extrajudicial killings are a feature of a Chinese state's security approach to the region. The disproportionate use of force during house-to-house searches, at security checkpoints, and during peaceful demonstrations have led to state-initiated violence. Credible allegations of state violence in Hanerik, Elishku, Alaqagha, and Siriqbuya merit further investigation.    Furthermore, the Chinese state's persecution of Uyghur academic Ilham Tohti and his students demonstrates the highly vindictive and paranoid nature of the Chinese regime. Using legitimate and peaceful means to initiate a meaningful dialogue with the state on the deplorable conditions facing the Uyghurs, Ilham Tohti was targeted by the Chinese authorities and sentenced to life in prison in a legal process that was highly politicized.    The expansion of the Magnitsky Act to apply universally to all officials who have directed, ordered, or committed gross human rights violations will show strong American leadership to protect the fundamental human rights of all people around the world. If this act becomes law, it will have a profound ripple effect, because mere listing some of the most well-known human rights violators in authoritarian states like China will send a powerful message to low-ranking officials that their criminal actions will not be immune to international scrutiny, condemnation, and consequences.    International scrutiny is imperative to achieve tangible results in human rights. My case is example of what can be done when human rights violators are publicly named. Without international pressure and concern, I could have been tortured, or even killed, in prison. However, not everyone is as lucky as me. Many Uyghurs face cruel and unusual torture and punishment in the Chinese prison system every day.    Enacting a Global Magnitsky Act will protect the fundamental human rights of the oppressed and save the lives of many peoples, including the Uyghurs. They will be grateful to the U.S. for taking an important step in the global protection of human rights around the world.    There may be concerns that such an act will directly impact bilateral relations with authoritarian states. It must be noted that this act doesn't specifically target a particular country or a head of state. It only targets individuals who are the most egregious human rights violators, or are the more corrupt officials, and who commit such violations under his or her official capacity.    Therefore, the negative impact of this act on bilateral relations would be minimal, while its positive impact on improving global human rights and creating a model for other countries to follow would be huge.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so very much, Ms. Kadeer.    Mr. Weinstein.</t>
   </si>
   <si>
+    <t>Weinstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weinstein. Thank you, Chairman Smith, Ranking Member Bass, Representative Cicilline. I deeply appreciate the invitation to appear before you today to discuss Chairman Smith's bill, H.R. 624, the Global Magnitsky Human Rights Accountability Act, as well as the broader issue of corruption as an affront to human rights and a threat to U.S. national security. I want to applaud your moral courage and your leadership on these issues, which has been critical in the past and is needed as we go forward.    Throughout the world, corruption undermines the rule of law, it erodes confidence in democratic accountability, it threatens representative government, and thereby poses a fundamental challenge to human rights. When corruption is highly entrenched, economies are plundered and repression is often brought to bear against citizens and civic organizations demanding accountable governance.    Corrupt regimes, as we now see on a daily basis, also exert a very destablizing influence on international affairs. One only need to rapidly review the headlines to gain a sense of how politically motivated violence is fueled by profiteering and bribery, especially where weak governance is in place. Look around at the turmoil following the Arab Spring, the war in Ukraine, and you'll see different facets of the danger that corruption poses to peace, prosperity, and freedom worldwide.    Whether it be in Afghanistan, Syria, Iraq, or Libya, areas of significant destabilizing conflicts, vast levels of graft and cronyism have been crippling both national and local governments. Corruption serves as a rallying cry for extremist groups and is an obstacle to encountering them effectively on the battlefield.    Across Europe, and we have heard a bit about Asia, authoritarian kleptocracy is a particularly dangerous manifestation of this phenomena. Beyond internal oppression, these regimes are increasingly willing to export bribery and extortion, to support client states, coopt foreign political factions, and undermine the advance of democracy abroad. And these same kleptocracies, as we have heard, are willing to employ appalling violence to preserve the parasitic arrangements that keep them in power.    We saw what happened in the streets of Kiev in 2014 when citizens took to the streets to oust Viktor Yanukovych, the corrupt patron of Moscow, and they stood their courageously despite a wall of batons and a hail of bullets that killed more than 100 of their countrymen.    Their popular will for closer ties to Europe, for democratization, and freedom prevailed, but Russia responded with invasion, annexation, and occupation. To the Kremlin, a free and democratic Ukraine is an unacceptable counterpoint to the corruption and authoritarianism of the Putin regime that we have heard so much about already.    As a result, a sovereign state at the heart of Europe faces military aggression proscribed by the Budapest Memorandum on Security Assurances, the Helsinki Final Act, and Article Two of the U.N. Charter.    Meanwhile, fringe political parties throughout Europe, both East and West--and not simply fringe political parties--are being buoyed and bankrolled by the same corrupt governments or private entities that belong to government officials in these countries fueling the war in Ukraine.    Veiled nuclear threats and provocative military maneuvers seek to rattle the nerves of our European partners while aggressive media and social media campaigns spreads disinformation, distract attention from the truth, and sow discord. These operations divide our allies, discredit the NATO security compact, and call into question the values of the post-Cold War political order.    Fortunately, the inherent superiority of both the Western political and financial order grants the U.S. leverage to confront this complex national security threat. As has been noted, corrupt officials often take advantage of open societies to shelter their assets and gain safe haven from political pressures at home.    With apartments and villas of grand standing and large bank accounts abroad, kleptocrats and their cronies and enablers can enjoy the benefits of freedom and rule of law that they or their associates deny to their fellow citizens. This is especially the case when public officials, in collusion with private entities, are allowed to abuse their authority with impunity.    The legislation that you have proposed, the Global Magnitsky Human Rights Accountability Act, offers the United States an opportunity to close this escape valve and to refuse to serve the interests of kleptocrats and our strategic adversaries. This bill is complementary to U.S. policy and can be narrowly and appropriately tailored.    The Obama administration's 2014 fact sheet on the U.S. Global Anticorruption Agenda identifies corruption as a growing national security threat to our country and our allies around the world. Furthermore, it notes that the United States continues to take action to prevent the U.S. legal and financial systems from being exploited by those who engage in or who launder the proceeds of corruption.    Government entities, including the FBI, the Department of Justice, the Department of State, and the Department of Treasury are active in countering kleptocracy. This bill would complement their work by providing a mechanism for congressional action to sanction specific individuals most responsible for human rights abuses and threats to U.S. national security.    The Global Magnitsky Act is neither a blank check to Congress nor an overreaching mandate imposed on the executive branch. Congress' authority respecting the application of the Magnitsky Act is sensibly balanced by the diplomatic and national security prerogatives or priorities set by the executive branch.    The bill provides the President with broad authority to determine the scope of sanctions and grant waivers, as appropriate, in the interest of national security. Conversely, the bill's reporting requirement encourages the President to seriously consider congressional recommendations and make scrupulous determinations based upon its findings.    Finally, the bill reflects beliefs broadly shared by the American public and our partners in the international community. The U.S. is the indispensable nation, the world leader primarily responsible for promoting the rule of law, good governance, human rights, and a peaceful international order.    We are a leader in confronting criminal regimes in the name of freedom. Global Magnitsky will build on this legacy, setting an example for others to follow in refusing to lend legitimacy to human rights abusers by sheltering their stolen assets and welcoming them to our shores.    The bill wisely sanctions only individuals. It leaves important multilateral trade and cultural exchanges upon which citizens of all countries benefit untouched. The bill also expresses solidarity with those suffering under corrupt regimes, taking actions against human rights abusers on behalf of those who cannot do so themselves.    Accordingly, the bill represents an opportunity to take a stand against destabilizing public corruption in a conspicuous, visible, and effective manner, thereby lending support to the fight for democracy, rule of law, and freedom throughout the world.    Last year, Hudson Institute founded the Kleptocracy Initiative, a program aimed at addressing the threats posed by corrupt authoritarian regimes to Western democracy and U.S. national security. We founded this initiative in part because of the threat posed to Western democracies and Western alliances by the growing financial leverage of kleptocrats and their allies in the economies of the West.    Given the threat that they pose to democracy in their own countries and to the defense of freedom abroad, the individuals responsible for unconscionable acts of corruption and human rights violations should not be granted sanctuary on our soil or economic refuge in our financial sector. As such, I applaud the Global Magnitsky Act as an effective and appropriate countermeasure against these criminal regimes.    By refusing to allow abusers of human rights the privilege of access to our financial institutions and entry upon our soil, the Global Magnitsky Act represents a momentous opportunity to demonstrate continued American leadership on this most critical effort.    Thank you again for inviting me to testify. It is an honor to speak before this august subcommittee on an issue of such consequence to our vital national interests.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Dr. Weinstein, thank you very much for your testimony and insights.    Dr. Calingaert.</t>
+  </si>
+  <si>
+    <t>Calingaert</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Calingaert. Chairman Smith, Ranking Member Bass, Congressman Cicilline, thanks so much for the invitation to speak today. I applaud your leadership on human rights issues and especially for introducing the Global Magnitsky Human Rights Accountability Act.    Earlier today, Freedom House released its annual global survey of press freedom, and the findings were really pretty grim. We see the lowest rating in 10 years. In a separate report where we look at political and civil rights generally, we have seen 9 straight years of decline.    What we are seeing, in essence, is a resurgence of authoritarian governments. And these governments are using tactics that are more and more brazen, and they are really showing open disdain for basic democratic standards. To pick just one example, in Egypt, over 1,400 political activists have been sentenced to death in mass trials that did not even have basic elements of due process. The world is becoming more hostile to our values and also our interests, because undemocratic forces, particularly authoritarian governments, are driving political change.    The U.S. needs to take the initiative on human rights away from authoritarian governments, and the best way to do this is to target their weak spots; namely, impunity and corruption.    Why should we hold individual officials to account for human rights abuses? Well, first, to put increased pressure on governments to respect human rights--and in most cases this means to follow their own constitutions and live up to their own commitments to international human rights agreements.    Second, to deter future human rights violations. If a penalty hangs over a perpetrator's head, he or she may think twice about committing the crime.    Third, to force authoritarian rulers to make a difficult choice. Either they can protect the most repugnant officials in their regimes and attract further scrutiny to the worst aspects of their rule, or they can cut loose the very officials who do their dirty work and keep them in power.    Why should we focus on corruption? Because it is the Achilles' heel of authoritarian regimes. For ordinary citizens, human rights are sometimes a bit abstract, but they fully understand the harm caused by corruption. They detest the injustice of rulers enriching themselves at the public's expense, particularly when citizens are struggling to make ends meet.    The popular uprising in Ukraine against then-President Yanukovych was in large part a reaction to the corruption in the government. The Sergei Magnitsky Rule of Law Accountability Act of 2012 provided a sound policy instrument to address human rights abuses in Russia. It introduced a measure of accountability for the perpetrators of those abuses.    The law carefully targeted visa bans and asset freezes on individuals responsible for gross human rights violations, and it in no way harmed ordinary Russians. The Global Magnitsky bill would direct the President to extend the same consequences to perpetrators of human rights abuses and corrupt officials anywhere in the world.    The global scope of this bill is a key strength. It means no country is singled out, and it would apply to countries like China and Saudi Arabia that tend to escape criticism for their human rights abuses because of competing economic or security interests.    There are a great many others around the world like Sergei Magnitsky who have been targeted for abuse because they dare to call for justice or freedom. To cite just a few recent examples, Gao Yu was sentenced to 7 years in prison in China, really for doing her job, for being a forthright and principled journalist.    Raif Badawi was sentenced in Saudi Arabia to 10 years in prison and 1,000 lashes because his Web site hosted criticism of senior religious figures. The Zone Nine bloggers in Ethiopia face a possible death sentence on terrorism charges because they documented human rights abuses and reported on political prisoners.    In Azerbaijan, Rasul Jafarov was sentenced to 6\\1/2\\ years for exposing the government's poor human rights record at a time when that government is trying to burnish its international credentials and preparing for hosting the European games in June. And also, in Azerbaijan, Khadija Ismayilova was imprisoned because she dared to investigate and publish news articles about corruption by the family of the President Aliyev. The list could go on and on.    The perpetrators of these and similar abuses are rarely denied the benefit of entry to the United States or access to our financial system. The Global Magnitsky bill would change that. If passed, this bill may elicit some angry responses from some authoritarian rulers or complicate U.S. relations with some governments. But what can they say? They can't openly admit that they harbor individuals responsible for human rights abuses and corruption.    When the United States defends human rights, it usually faces resistance--that is expected--but we press ahead because we know that what we are doing is right, and we refuse to let authoritarian rulers dictate the terms of our relationship with them.    We can't accept that the price of security or economic cooperation is to look the other way on human rights violations. We need to be confident enough both to continue the cooperation with other governments but still to hold human rights abusers and corrupt officials to account.    Thank you.</t>
@@ -497,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,725 +563,856 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94388.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bass</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>412470</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Cicilline</t>
@@ -533,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +553,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,853 +578,924 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
